--- a/data/trans_dic/IP1015-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1015-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,17 +742,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -772,17 +772,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0; 0,6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,53</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,51</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,85</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0; 0,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,17 +852,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,13%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0; 0,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,29</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,49</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,53</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,6</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,16</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,0; 0,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1015-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1015-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,17 +662,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0; 1,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,57</t>
+          <t>0; 0,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0; 1,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 1,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0; 0,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,89</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0; 0,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,17 +742,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -772,17 +772,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,27; 2,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,58</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,63</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,53</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,16</t>
+          <t>0,13; 1,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,0; 0,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0; 1,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,85</t>
+          <t>0; 0,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0; 0,36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,17 +962,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,21%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 0,62</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,52</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,33</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,67</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,79</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,78</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,32</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,46</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
           <t>0,09; 0,77</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,65</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>0; 0,19</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>0,0; 0,34</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>0; 0,18</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,4</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>0,05; 0,44</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>0,0; 0,34</t>
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP1015-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1015-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,86</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,29</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,09</t>
+          <t>0,13; 1,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,75</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,77</t>
+          <t>0,09; 0,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,72</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,34</t>
+          <t>0,0; 0,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,42</t>
+          <t>0,05; 0,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,34</t>
+          <t>0,0; 0,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1015-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP1015-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -685,34 +685,34 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,18</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,85</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,91</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,05</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0; 0,93</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 1,02</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,18</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,98</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,91</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 0,56</t>
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,82%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,28%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,25%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,26; 2,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,22</t>
+          <t>0,13; 1,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
     </row>
@@ -905,32 +905,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 1,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,7</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,9</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>0; 0,84</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 0,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,87</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -967,27 +967,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,73%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,41%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,32 +1015,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 0,67</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,79</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,78</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,62</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,55</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,08</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,67</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,29%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,27%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,18%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,76</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,74</t>
+          <t>0,0; 0,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,09; 0,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,36</t>
+          <t>0,08; 0,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>0,05; 0,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>0,05; 0,44</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,45</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,3</t>
+          <t>0,0; 0,34</t>
         </is>
       </c>
     </row>
